--- a/src/test/java/sharecaar_testdata/ShareCaarSignup.xlsx
+++ b/src/test/java/sharecaar_testdata/ShareCaarSignup.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace-Selenium\Hybrid_ShareCaarProject\src\test\java\sharecaar_testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D51C0A-16D1-4F2C-8EE2-0F8022CA3236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7029C373-2F3B-4BB6-B046-EEF99AEC91AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0DF5D3FC-8B44-4C15-86DD-BB2A3D53CEF2}"/>
   </bookViews>
@@ -16,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>FName</t>
   </si>
@@ -69,10 +65,7 @@
     <t>mallepally</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>prabhavathi22@gmail.com</t>
+    <t>prabhavathi@441gmail.com</t>
   </si>
 </sst>
 </file>
@@ -117,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,19 +251,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -278,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -290,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -610,14 +589,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" customWidth="1"/>
     <col min="6" max="6" width="18.6328125" customWidth="1"/>
@@ -642,9 +621,6 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -662,10 +638,9 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -683,10 +658,9 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
@@ -695,19 +669,18 @@
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>15</v>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="5">
-        <v>9123456789</v>
+        <v>1123456789</v>
       </c>
       <c r="E4" s="5">
         <v>123456</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>123456</v>
       </c>
-      <c r="G4" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
